--- a/Code/Results/Cases/Case_5_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.076246063154144</v>
+        <v>1.131363195441679</v>
       </c>
       <c r="C2">
-        <v>0.3427278639345559</v>
+        <v>0.1326042677537203</v>
       </c>
       <c r="D2">
-        <v>0.05406526800943823</v>
+        <v>0.1275294616268425</v>
       </c>
       <c r="E2">
-        <v>0.04112934331765583</v>
+        <v>0.1186993804594567</v>
       </c>
       <c r="F2">
-        <v>0.7612726559184608</v>
+        <v>1.560539851896486</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3782249782961919</v>
+        <v>0.9378677532000239</v>
       </c>
       <c r="J2">
-        <v>0.05803388062563641</v>
+        <v>0.1443678292443984</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1949294927654748</v>
+        <v>0.3127432918539128</v>
       </c>
       <c r="M2">
-        <v>0.3827465823526239</v>
+        <v>0.2926087856765989</v>
       </c>
       <c r="N2">
-        <v>0.870207413396578</v>
+        <v>1.574602123217545</v>
       </c>
       <c r="O2">
-        <v>1.981167146405824</v>
+        <v>3.989614806516528</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.808649615884946</v>
+        <v>1.054654112223346</v>
       </c>
       <c r="C3">
-        <v>0.3048265721639183</v>
+        <v>0.1202849056888766</v>
       </c>
       <c r="D3">
-        <v>0.05161190258901271</v>
+        <v>0.1273487956011401</v>
       </c>
       <c r="E3">
-        <v>0.04190944669873353</v>
+        <v>0.1193505311781689</v>
       </c>
       <c r="F3">
-        <v>0.7341323017752686</v>
+        <v>1.564899490733445</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3806215727152455</v>
+        <v>0.9455961383164784</v>
       </c>
       <c r="J3">
-        <v>0.05933284329091926</v>
+        <v>0.1451163965834157</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1785717854441913</v>
+        <v>0.3096940352693949</v>
       </c>
       <c r="M3">
-        <v>0.3357601415632701</v>
+        <v>0.2799589163362128</v>
       </c>
       <c r="N3">
-        <v>0.8971755839022819</v>
+        <v>1.58738224020113</v>
       </c>
       <c r="O3">
-        <v>1.911927293025542</v>
+        <v>4.002590084295917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.644699189386813</v>
+        <v>1.007785563640425</v>
       </c>
       <c r="C4">
-        <v>0.2815210392159173</v>
+        <v>0.1126673836269703</v>
       </c>
       <c r="D4">
-        <v>0.05014192086836644</v>
+        <v>0.1272696348335423</v>
       </c>
       <c r="E4">
-        <v>0.04242057524480813</v>
+        <v>0.1197759119407649</v>
       </c>
       <c r="F4">
-        <v>0.7188021051367883</v>
+        <v>1.568351032597803</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3828790802595208</v>
+        <v>0.9507960789339656</v>
       </c>
       <c r="J4">
-        <v>0.06016459508680327</v>
+        <v>0.1456016224406387</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1686735012063068</v>
+        <v>0.3079292087616068</v>
       </c>
       <c r="M4">
-        <v>0.3070318436635091</v>
+        <v>0.2722774406976214</v>
       </c>
       <c r="N4">
-        <v>0.914757996561562</v>
+        <v>1.595759612943986</v>
       </c>
       <c r="O4">
-        <v>1.873215404968136</v>
+        <v>4.012665513329097</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.577957790758404</v>
+        <v>0.988745820298476</v>
       </c>
       <c r="C5">
-        <v>0.272012611507364</v>
+        <v>0.1095499019421027</v>
       </c>
       <c r="D5">
-        <v>0.0495517717161178</v>
+        <v>0.1272453982942103</v>
       </c>
       <c r="E5">
-        <v>0.04263686625560137</v>
+        <v>0.1199557005955185</v>
       </c>
       <c r="F5">
-        <v>0.7128753584240002</v>
+        <v>1.569952506591434</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3839892554242823</v>
+        <v>0.9530294468627964</v>
       </c>
       <c r="J5">
-        <v>0.06051210312137023</v>
+        <v>0.1458058067499577</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1646744079777136</v>
+        <v>0.3072371620953618</v>
       </c>
       <c r="M5">
-        <v>0.2953515448052642</v>
+        <v>0.2691689674518258</v>
       </c>
       <c r="N5">
-        <v>0.9221742166437608</v>
+        <v>1.599306940158925</v>
       </c>
       <c r="O5">
-        <v>1.858350999772682</v>
+        <v>4.017301714394335</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.566879095657526</v>
+        <v>0.985587926025147</v>
       </c>
       <c r="C6">
-        <v>0.2704329904899083</v>
+        <v>0.1090314486789339</v>
       </c>
       <c r="D6">
-        <v>0.04945430659666528</v>
+        <v>0.1272418593394526</v>
       </c>
       <c r="E6">
-        <v>0.0426732622203434</v>
+        <v>0.119985943841816</v>
       </c>
       <c r="F6">
-        <v>0.7119101535744576</v>
+        <v>1.570230208211811</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3841848774387699</v>
+        <v>0.9534072028578677</v>
       </c>
       <c r="J6">
-        <v>0.06057032276291974</v>
+        <v>0.1458401013928032</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1640123903255315</v>
+        <v>0.3071238906759035</v>
       </c>
       <c r="M6">
-        <v>0.2934135451761861</v>
+        <v>0.2686541317838191</v>
       </c>
       <c r="N6">
-        <v>0.9234206730465289</v>
+        <v>1.599904036709866</v>
       </c>
       <c r="O6">
-        <v>1.855936524436913</v>
+        <v>4.018103590808551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.643798834162283</v>
+        <v>1.007528543882358</v>
       </c>
       <c r="C7">
-        <v>0.2813928541517186</v>
+        <v>0.1126253937551382</v>
       </c>
       <c r="D7">
-        <v>0.05013392630205615</v>
+        <v>0.127269275444668</v>
       </c>
       <c r="E7">
-        <v>0.04242345992508234</v>
+        <v>0.1197783105311365</v>
       </c>
       <c r="F7">
-        <v>0.7187208968987733</v>
+        <v>1.56837184114044</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3828932918290171</v>
+        <v>0.9508257358949628</v>
       </c>
       <c r="J7">
-        <v>0.06016924707562055</v>
+        <v>0.145604350005212</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1686194307970368</v>
+        <v>0.3079197655511621</v>
       </c>
       <c r="M7">
-        <v>0.3068742158324298</v>
+        <v>0.2722354301577568</v>
       </c>
       <c r="N7">
-        <v>0.9148570050005915</v>
+        <v>1.595806912818503</v>
       </c>
       <c r="O7">
-        <v>1.873011307655588</v>
+        <v>4.012725891041867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.983892982076782</v>
+        <v>1.104866774633365</v>
       </c>
       <c r="C8">
-        <v>0.329664871627358</v>
+        <v>0.1283677145806621</v>
       </c>
       <c r="D8">
-        <v>0.05321162517993372</v>
+        <v>0.1274605942269247</v>
       </c>
       <c r="E8">
-        <v>0.04139160269416475</v>
+        <v>0.1189185972995062</v>
       </c>
       <c r="F8">
-        <v>0.7516284955074326</v>
+        <v>1.561882344309524</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3788836213845173</v>
+        <v>0.9404381412655383</v>
       </c>
       <c r="J8">
-        <v>0.05847464801164648</v>
+        <v>0.1446206292558463</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1892579164932826</v>
+        <v>0.3116696819326776</v>
       </c>
       <c r="M8">
-        <v>0.3665180257328728</v>
+        <v>0.2882295010502816</v>
       </c>
       <c r="N8">
-        <v>0.8792897113924667</v>
+        <v>1.578898712056308</v>
       </c>
       <c r="O8">
-        <v>1.95647647032078</v>
+        <v>3.99365114543167</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.654601817347327</v>
+        <v>1.297526890840004</v>
       </c>
       <c r="C9">
-        <v>0.4241907268436762</v>
+        <v>0.158809810303012</v>
       </c>
       <c r="D9">
-        <v>0.05954909263360264</v>
+        <v>0.1280864623949896</v>
       </c>
       <c r="E9">
-        <v>0.0396269039568109</v>
+        <v>0.1174350394355832</v>
       </c>
       <c r="F9">
-        <v>0.827462744693058</v>
+        <v>1.555298731523123</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3776088036058987</v>
+        <v>0.9236752209440695</v>
       </c>
       <c r="J9">
-        <v>0.05542424519826916</v>
+        <v>0.1428941046332595</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2309825500639562</v>
+        <v>0.3198709853739246</v>
       </c>
       <c r="M9">
-        <v>0.4846344140383465</v>
+        <v>0.3202629921164046</v>
       </c>
       <c r="N9">
-        <v>0.8179594907385805</v>
+        <v>1.549944137647238</v>
       </c>
       <c r="O9">
-        <v>2.152460002888262</v>
+        <v>3.972972207444002</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.151163002544479</v>
+        <v>1.440101607350243</v>
       </c>
       <c r="C10">
-        <v>0.4937629575872791</v>
+        <v>0.1809096999611199</v>
       </c>
       <c r="D10">
-        <v>0.06440959745702202</v>
+        <v>0.1286974027139749</v>
       </c>
       <c r="E10">
-        <v>0.03849350834998777</v>
+        <v>0.1164676359234287</v>
       </c>
       <c r="F10">
-        <v>0.8911262115194489</v>
+        <v>1.554201924670053</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3812039676890748</v>
+        <v>0.9135579864368921</v>
       </c>
       <c r="J10">
-        <v>0.05335136092706527</v>
+        <v>0.1417482617220944</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2625499107681861</v>
+        <v>0.3264079081922944</v>
       </c>
       <c r="M10">
-        <v>0.5724088216871905</v>
+        <v>0.3441950550638921</v>
       </c>
       <c r="N10">
-        <v>0.7784596565851984</v>
+        <v>1.531225424700622</v>
       </c>
       <c r="O10">
-        <v>2.319308198108075</v>
+        <v>3.967976406767434</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.378242011937743</v>
+        <v>1.505174222380788</v>
       </c>
       <c r="C11">
-        <v>0.5254902934910888</v>
+        <v>0.1909048998321055</v>
       </c>
       <c r="D11">
-        <v>0.06666997054660584</v>
+        <v>0.129007795242714</v>
       </c>
       <c r="E11">
-        <v>0.03801457101825889</v>
+        <v>0.1160539867443235</v>
       </c>
       <c r="F11">
-        <v>0.9220646562959303</v>
+        <v>1.554514328754621</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3839452698241672</v>
+        <v>0.9094327000761027</v>
       </c>
       <c r="J11">
-        <v>0.05244534407509072</v>
+        <v>0.1412534373733125</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2771442616932944</v>
+        <v>0.3294916942241173</v>
       </c>
       <c r="M11">
-        <v>0.6126252413250697</v>
+        <v>0.3551664361443159</v>
       </c>
       <c r="N11">
-        <v>0.7617985498295781</v>
+        <v>1.523262869450932</v>
       </c>
       <c r="O11">
-        <v>2.400925327222581</v>
+        <v>3.967918270627024</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.464433250398713</v>
+        <v>1.529845116386298</v>
       </c>
       <c r="C12">
-        <v>0.5375203170063401</v>
+        <v>0.1946813389986346</v>
       </c>
       <c r="D12">
-        <v>0.06753342596342549</v>
+        <v>0.1291299704824311</v>
       </c>
       <c r="E12">
-        <v>0.03783859243061283</v>
+        <v>0.1159011362672659</v>
       </c>
       <c r="F12">
-        <v>0.9340868870364858</v>
+        <v>1.554749201419355</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3851532198682435</v>
+        <v>0.9079391637939267</v>
       </c>
       <c r="J12">
-        <v>0.05210761603061353</v>
+        <v>0.1410698470252285</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2827075468197648</v>
+        <v>0.3306751679383382</v>
       </c>
       <c r="M12">
-        <v>0.6279015544300535</v>
+        <v>0.359332936346874</v>
       </c>
       <c r="N12">
-        <v>0.7556865691055563</v>
+        <v>1.520327028813668</v>
       </c>
       <c r="O12">
-        <v>2.432720554004362</v>
+        <v>3.968214641128071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.445860966232374</v>
+        <v>1.524530519342477</v>
       </c>
       <c r="C13">
-        <v>0.534928671925087</v>
+        <v>0.1938683970680017</v>
       </c>
       <c r="D13">
-        <v>0.06734712491275019</v>
+        <v>0.1291034521843883</v>
       </c>
       <c r="E13">
-        <v>0.03787625119736227</v>
+        <v>0.1159338869843776</v>
       </c>
       <c r="F13">
-        <v>0.9314836837409217</v>
+        <v>1.554693434392433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3848853301791095</v>
+        <v>0.9082577714238269</v>
       </c>
       <c r="J13">
-        <v>0.05218011259870714</v>
+        <v>0.1411092181543045</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2815077098747736</v>
+        <v>0.3304195889008099</v>
       </c>
       <c r="M13">
-        <v>0.6246093279464162</v>
+        <v>0.3584350822988682</v>
       </c>
       <c r="N13">
-        <v>0.7569939694646877</v>
+        <v>1.520955784061414</v>
       </c>
       <c r="O13">
-        <v>2.425832254921517</v>
+        <v>3.968136653033724</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.385328801138371</v>
+        <v>1.507203333258531</v>
       </c>
       <c r="C14">
-        <v>0.5264796729991303</v>
+        <v>0.1912157615713852</v>
       </c>
       <c r="D14">
-        <v>0.06674085474908509</v>
+        <v>0.1290177539437991</v>
       </c>
       <c r="E14">
-        <v>0.03799998456083742</v>
+        <v>0.1160413357580046</v>
       </c>
       <c r="F14">
-        <v>0.9230474573392513</v>
+        <v>1.554531316159967</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3840411792128862</v>
+        <v>0.9093084506140485</v>
       </c>
       <c r="J14">
-        <v>0.05241745126470931</v>
+        <v>0.1412382574127831</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2776012023621206</v>
+        <v>0.3295887451501471</v>
       </c>
       <c r="M14">
-        <v>0.613881050921826</v>
+        <v>0.3555089802311997</v>
       </c>
       <c r="N14">
-        <v>0.7612917061827957</v>
+        <v>1.52301974503473</v>
       </c>
       <c r="O14">
-        <v>2.403522933823297</v>
+        <v>3.96793627260223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.348278255776108</v>
+        <v>1.496593701803647</v>
       </c>
       <c r="C15">
-        <v>0.5213065776249834</v>
+        <v>0.1895898305155299</v>
       </c>
       <c r="D15">
-        <v>0.06637048634402021</v>
+        <v>0.1289658640997686</v>
       </c>
       <c r="E15">
-        <v>0.03807647955429783</v>
+        <v>0.1161076444197171</v>
       </c>
       <c r="F15">
-        <v>0.9179206246219138</v>
+        <v>1.554447192243671</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3835465701297238</v>
+        <v>0.9099609587556046</v>
       </c>
       <c r="J15">
-        <v>0.0525635276474965</v>
+        <v>0.1413177907845542</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2752132298829224</v>
+        <v>0.3290818717528481</v>
       </c>
       <c r="M15">
-        <v>0.6073160045099399</v>
+        <v>0.3537181964430616</v>
       </c>
       <c r="N15">
-        <v>0.7639501606032084</v>
+        <v>1.524294319791629</v>
       </c>
       <c r="O15">
-        <v>2.389975602495554</v>
+        <v>3.967854995356703</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.13634934002647</v>
+        <v>1.4358531449613</v>
       </c>
       <c r="C16">
-        <v>0.491691439898716</v>
+        <v>0.1802553059715706</v>
       </c>
       <c r="D16">
-        <v>0.06426290339619101</v>
+        <v>0.1286777684249429</v>
       </c>
       <c r="E16">
-        <v>0.03852555515416167</v>
+        <v>0.1164951997384467</v>
       </c>
       <c r="F16">
-        <v>0.8891459645322897</v>
+        <v>1.55419782627645</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3810479816850147</v>
+        <v>0.9138371852019063</v>
       </c>
       <c r="J16">
-        <v>0.053411318789367</v>
+        <v>0.1417811304564305</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2616011036528931</v>
+        <v>0.326208580691727</v>
       </c>
       <c r="M16">
-        <v>0.5697868617970414</v>
+        <v>0.3434797268873453</v>
       </c>
       <c r="N16">
-        <v>0.7795755832040925</v>
+        <v>1.53175691181039</v>
       </c>
       <c r="O16">
-        <v>2.314094949262454</v>
+        <v>3.968024762489989</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.006663531462777</v>
+        <v>1.398644649236417</v>
       </c>
       <c r="C17">
-        <v>0.4735465678155037</v>
+        <v>0.1745138669364223</v>
       </c>
       <c r="D17">
-        <v>0.06298288128301266</v>
+        <v>0.1285093244351714</v>
       </c>
       <c r="E17">
-        <v>0.03881051482057885</v>
+        <v>0.1167397134215262</v>
       </c>
       <c r="F17">
-        <v>0.8720154445727957</v>
+        <v>1.554252583662048</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3798059166680119</v>
+        <v>0.9163373302082292</v>
       </c>
       <c r="J17">
-        <v>0.05394090789787498</v>
+        <v>0.142072134612774</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2533125885538112</v>
+        <v>0.3244740236079338</v>
       </c>
       <c r="M17">
-        <v>0.5468416209880971</v>
+        <v>0.3372202144390926</v>
       </c>
       <c r="N17">
-        <v>0.7895025312401245</v>
+        <v>1.536476475085742</v>
       </c>
       <c r="O17">
-        <v>2.269054798270929</v>
+        <v>3.968696052248475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.932181838148495</v>
+        <v>1.377263604743121</v>
       </c>
       <c r="C18">
-        <v>0.4631172377313817</v>
+        <v>0.1712060794392869</v>
       </c>
       <c r="D18">
-        <v>0.0622512609558683</v>
+        <v>0.1284154983733643</v>
       </c>
       <c r="E18">
-        <v>0.03897785854515678</v>
+        <v>0.116882839348194</v>
       </c>
       <c r="F18">
-        <v>0.8623471546583943</v>
+        <v>1.554360452402676</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3791949099674596</v>
+        <v>0.9178202529901753</v>
       </c>
       <c r="J18">
-        <v>0.05424898834397318</v>
+        <v>0.1422420004381362</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.24856710342317</v>
+        <v>0.3234867233535113</v>
       </c>
       <c r="M18">
-        <v>0.5336707985445841</v>
+        <v>0.3336278851135219</v>
       </c>
       <c r="N18">
-        <v>0.7953347393024472</v>
+        <v>1.539243067863595</v>
       </c>
       <c r="O18">
-        <v>2.243682770226371</v>
+        <v>3.969290600858471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.906981654811545</v>
+        <v>1.370027884281626</v>
       </c>
       <c r="C19">
-        <v>0.459587144227072</v>
+        <v>0.1700851860478849</v>
       </c>
       <c r="D19">
-        <v>0.06200432737342965</v>
+        <v>0.1283842567877826</v>
       </c>
       <c r="E19">
-        <v>0.03903510611910654</v>
+        <v>0.116931726994153</v>
       </c>
       <c r="F19">
-        <v>0.8591047152181943</v>
+        <v>1.554410095172173</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3790054726098901</v>
+        <v>0.9183300572871431</v>
       </c>
       <c r="J19">
-        <v>0.05435389446996997</v>
+        <v>0.1422999417306086</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2469640270772402</v>
+        <v>0.3231542254307271</v>
       </c>
       <c r="M19">
-        <v>0.5292157927746501</v>
+        <v>0.332412962794443</v>
       </c>
       <c r="N19">
-        <v>0.7973301918774069</v>
+        <v>1.540188726112717</v>
       </c>
       <c r="O19">
-        <v>2.235181978239751</v>
+        <v>3.969527706289853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.020457195783422</v>
+        <v>1.402603467659958</v>
       </c>
       <c r="C20">
-        <v>0.4754773536616881</v>
+        <v>0.175125619576761</v>
       </c>
       <c r="D20">
-        <v>0.06311866134813471</v>
+        <v>0.1285269392870916</v>
       </c>
       <c r="E20">
-        <v>0.03877982328786267</v>
+        <v>0.1167134270893539</v>
       </c>
       <c r="F20">
-        <v>0.8738197429671004</v>
+        <v>1.554238850961937</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3799273590895069</v>
+        <v>0.9160665378472501</v>
       </c>
       <c r="J20">
-        <v>0.05388417226611963</v>
+        <v>0.1420408993123514</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2541926324215211</v>
+        <v>0.324657597688045</v>
       </c>
       <c r="M20">
-        <v>0.5492813791111644</v>
+        <v>0.3378857267281603</v>
       </c>
       <c r="N20">
-        <v>0.7884330486812061</v>
+        <v>1.535968685654183</v>
       </c>
       <c r="O20">
-        <v>2.273793677884129</v>
+        <v>3.968603019881073</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.403102849586446</v>
+        <v>1.512291964876681</v>
       </c>
       <c r="C21">
-        <v>0.528960890433666</v>
+        <v>0.1919951376210633</v>
       </c>
       <c r="D21">
-        <v>0.06691872399068188</v>
+        <v>0.1290428000306392</v>
       </c>
       <c r="E21">
-        <v>0.03796349399318633</v>
+        <v>0.1160096726882491</v>
       </c>
       <c r="F21">
-        <v>0.9255168789890433</v>
+        <v>1.554575771271985</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3842844262347072</v>
+        <v>0.9089979782200217</v>
       </c>
       <c r="J21">
-        <v>0.05234759326187532</v>
+        <v>0.1412002527125562</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2787476163868803</v>
+        <v>0.3298323586855787</v>
       </c>
       <c r="M21">
-        <v>0.617030874987627</v>
+        <v>0.3563681272816126</v>
       </c>
       <c r="N21">
-        <v>0.7600239280783896</v>
+        <v>1.522411355130828</v>
       </c>
       <c r="O21">
-        <v>2.410051053479151</v>
+        <v>3.967986488739854</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65437314655361</v>
+        <v>1.584149839068914</v>
       </c>
       <c r="C22">
-        <v>0.5640084686310445</v>
+        <v>0.2029705700877571</v>
       </c>
       <c r="D22">
-        <v>0.06944621941396889</v>
+        <v>0.1294069535689459</v>
       </c>
       <c r="E22">
-        <v>0.03746141887373433</v>
+        <v>0.1155718116090325</v>
       </c>
       <c r="F22">
-        <v>0.961101911888278</v>
+        <v>1.55547539303798</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3881277712619493</v>
+        <v>0.9047782433378941</v>
       </c>
       <c r="J22">
-        <v>0.05137462103212087</v>
+        <v>0.140672921089168</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2950113268990151</v>
+        <v>0.3333058824518531</v>
       </c>
       <c r="M22">
-        <v>0.6615874265104082</v>
+        <v>0.3685165370189196</v>
       </c>
       <c r="N22">
-        <v>0.7426111639341997</v>
+        <v>1.514013667119976</v>
       </c>
       <c r="O22">
-        <v>2.504316728935265</v>
+        <v>3.969439317836105</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.520146092569973</v>
+        <v>1.545782890311102</v>
       </c>
       <c r="C23">
-        <v>0.5452929027871676</v>
+        <v>0.1971173836419098</v>
       </c>
       <c r="D23">
-        <v>0.06809308392371349</v>
+        <v>0.1292101376164894</v>
       </c>
       <c r="E23">
-        <v>0.03772646926576595</v>
+        <v>0.1158034892375985</v>
       </c>
       <c r="F23">
-        <v>0.941937285135694</v>
+        <v>1.554933113257647</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3859816155104241</v>
+        <v>0.9069937924700469</v>
       </c>
       <c r="J23">
-        <v>0.05189103699699249</v>
+        <v>0.1409523512421371</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2863102877536079</v>
+        <v>0.3314436639048211</v>
       </c>
       <c r="M23">
-        <v>0.6377792226663104</v>
+        <v>0.3620264739254537</v>
       </c>
       <c r="N23">
-        <v>0.7517958780121177</v>
+        <v>1.518453345653455</v>
       </c>
       <c r="O23">
-        <v>2.453505138132641</v>
+        <v>3.96849413087196</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.014220844406225</v>
+        <v>1.400813652664283</v>
       </c>
       <c r="C24">
-        <v>0.4746044382282264</v>
+        <v>0.1748490678692463</v>
       </c>
       <c r="D24">
-        <v>0.06305726187576255</v>
+        <v>0.1285189662209376</v>
       </c>
       <c r="E24">
-        <v>0.03879368798487537</v>
+        <v>0.1167253031910738</v>
       </c>
       <c r="F24">
-        <v>0.8730034598052896</v>
+        <v>1.554244821564183</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3798721347340788</v>
+        <v>0.9161888211695626</v>
       </c>
       <c r="J24">
-        <v>0.05390981119629146</v>
+        <v>0.1420550128053639</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.253794703478448</v>
+        <v>0.3245745729387011</v>
       </c>
       <c r="M24">
-        <v>0.5481783004219025</v>
+        <v>0.3375848288279997</v>
       </c>
       <c r="N24">
-        <v>0.7889161728588903</v>
+        <v>1.53619809136967</v>
       </c>
       <c r="O24">
-        <v>2.271649608989293</v>
+        <v>3.968644429984295</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.47260498129225</v>
+        <v>1.245222641999419</v>
       </c>
       <c r="C25">
-        <v>0.3986130624799671</v>
+        <v>0.1506207781314686</v>
       </c>
       <c r="D25">
-        <v>0.05780029037268974</v>
+        <v>0.1278904877042351</v>
       </c>
       <c r="E25">
-        <v>0.04007606056885216</v>
+        <v>0.1178148008455038</v>
       </c>
       <c r="F25">
-        <v>0.8056322369792852</v>
+        <v>1.556422647054831</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.377197014184997</v>
+        <v>0.9278239220137721</v>
       </c>
       <c r="J25">
-        <v>0.05622006501515209</v>
+        <v>0.1433395787460627</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2195460526584156</v>
+        <v>0.3175621165230638</v>
       </c>
       <c r="M25">
-        <v>0.4525283599171033</v>
+        <v>0.3115265719109033</v>
       </c>
       <c r="N25">
-        <v>0.8336072355488682</v>
+        <v>1.557328033575402</v>
       </c>
       <c r="O25">
-        <v>2.095667658180702</v>
+        <v>3.976775706613722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.131363195441679</v>
+        <v>2.076246063154144</v>
       </c>
       <c r="C2">
-        <v>0.1326042677537203</v>
+        <v>0.3427278639341012</v>
       </c>
       <c r="D2">
-        <v>0.1275294616268425</v>
+        <v>0.05406526800944533</v>
       </c>
       <c r="E2">
-        <v>0.1186993804594567</v>
+        <v>0.04112934331766871</v>
       </c>
       <c r="F2">
-        <v>1.560539851896486</v>
+        <v>0.7612726559184537</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.9378677532000239</v>
+        <v>0.3782249782961848</v>
       </c>
       <c r="J2">
-        <v>0.1443678292443984</v>
+        <v>0.0580338806257501</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3127432918539128</v>
+        <v>0.1949294927655387</v>
       </c>
       <c r="M2">
-        <v>0.2926087856765989</v>
+        <v>0.382746582352631</v>
       </c>
       <c r="N2">
-        <v>1.574602123217545</v>
+        <v>0.8702074133965709</v>
       </c>
       <c r="O2">
-        <v>3.989614806516528</v>
+        <v>1.981167146405795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.054654112223346</v>
+        <v>1.808649615884832</v>
       </c>
       <c r="C3">
-        <v>0.1202849056888766</v>
+        <v>0.3048265721636909</v>
       </c>
       <c r="D3">
-        <v>0.1273487956011401</v>
+        <v>0.05161190258900561</v>
       </c>
       <c r="E3">
-        <v>0.1193505311781689</v>
+        <v>0.04190944669871577</v>
       </c>
       <c r="F3">
-        <v>1.564899490733445</v>
+        <v>0.7341323017752615</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.9455961383164784</v>
+        <v>0.3806215727152527</v>
       </c>
       <c r="J3">
-        <v>0.1451163965834157</v>
+        <v>0.05933284329097344</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3096940352693949</v>
+        <v>0.1785717854440705</v>
       </c>
       <c r="M3">
-        <v>0.2799589163362128</v>
+        <v>0.3357601415632772</v>
       </c>
       <c r="N3">
-        <v>1.58738224020113</v>
+        <v>0.8971755839023459</v>
       </c>
       <c r="O3">
-        <v>4.002590084295917</v>
+        <v>1.911927293025656</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.007785563640425</v>
+        <v>1.644699189386841</v>
       </c>
       <c r="C4">
-        <v>0.1126673836269703</v>
+        <v>0.2815210392155336</v>
       </c>
       <c r="D4">
-        <v>0.1272696348335423</v>
+        <v>0.05014192086803959</v>
       </c>
       <c r="E4">
-        <v>0.1197759119407649</v>
+        <v>0.04242057524479526</v>
       </c>
       <c r="F4">
-        <v>1.568351032597803</v>
+        <v>0.7188021051367741</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.9507960789339656</v>
+        <v>0.3828790802595172</v>
       </c>
       <c r="J4">
-        <v>0.1456016224406387</v>
+        <v>0.06016459508688676</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3079292087616068</v>
+        <v>0.168673501206456</v>
       </c>
       <c r="M4">
-        <v>0.2722774406976214</v>
+        <v>0.3070318436635162</v>
       </c>
       <c r="N4">
-        <v>1.595759612943986</v>
+        <v>0.9147579965615478</v>
       </c>
       <c r="O4">
-        <v>4.012665513329097</v>
+        <v>1.873215404968107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.988745820298476</v>
+        <v>1.577957790758404</v>
       </c>
       <c r="C5">
-        <v>0.1095499019421027</v>
+        <v>0.2720126115073782</v>
       </c>
       <c r="D5">
-        <v>0.1272453982942103</v>
+        <v>0.04955177171606806</v>
       </c>
       <c r="E5">
-        <v>0.1199557005955185</v>
+        <v>0.04263686625561336</v>
       </c>
       <c r="F5">
-        <v>1.569952506591434</v>
+        <v>0.712875358423986</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.9530294468627964</v>
+        <v>0.3839892554242681</v>
       </c>
       <c r="J5">
-        <v>0.1458058067499577</v>
+        <v>0.06051210312136934</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3072371620953618</v>
+        <v>0.1646744079776994</v>
       </c>
       <c r="M5">
-        <v>0.2691689674518258</v>
+        <v>0.295351544805257</v>
       </c>
       <c r="N5">
-        <v>1.599306940158925</v>
+        <v>0.9221742166437537</v>
       </c>
       <c r="O5">
-        <v>4.017301714394335</v>
+        <v>1.858350999772739</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.985587926025147</v>
+        <v>1.566879095657384</v>
       </c>
       <c r="C6">
-        <v>0.1090314486789339</v>
+        <v>0.2704329904899225</v>
       </c>
       <c r="D6">
-        <v>0.1272418593394526</v>
+        <v>0.04945430659659422</v>
       </c>
       <c r="E6">
-        <v>0.119985943841816</v>
+        <v>0.04267326222031764</v>
       </c>
       <c r="F6">
-        <v>1.570230208211811</v>
+        <v>0.7119101535744576</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.9534072028578677</v>
+        <v>0.3841848774387984</v>
       </c>
       <c r="J6">
-        <v>0.1458401013928032</v>
+        <v>0.06057032276290197</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3071238906759035</v>
+        <v>0.1640123903254747</v>
       </c>
       <c r="M6">
-        <v>0.2686541317838191</v>
+        <v>0.2934135451761861</v>
       </c>
       <c r="N6">
-        <v>1.599904036709866</v>
+        <v>0.9234206730465502</v>
       </c>
       <c r="O6">
-        <v>4.018103590808551</v>
+        <v>1.85593652443697</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.007528543882358</v>
+        <v>1.643798834162254</v>
       </c>
       <c r="C7">
-        <v>0.1126253937551382</v>
+        <v>0.2813928541514912</v>
       </c>
       <c r="D7">
-        <v>0.127269275444668</v>
+        <v>0.05013392630216629</v>
       </c>
       <c r="E7">
-        <v>0.1197783105311365</v>
+        <v>0.04242345992509389</v>
       </c>
       <c r="F7">
-        <v>1.56837184114044</v>
+        <v>0.7187208968987591</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.9508257358949628</v>
+        <v>0.3828932918290135</v>
       </c>
       <c r="J7">
-        <v>0.145604350005212</v>
+        <v>0.06016924707564542</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3079197655511621</v>
+        <v>0.1686194307970581</v>
       </c>
       <c r="M7">
-        <v>0.2722354301577568</v>
+        <v>0.3068742158324227</v>
       </c>
       <c r="N7">
-        <v>1.595806912818503</v>
+        <v>0.9148570050005773</v>
       </c>
       <c r="O7">
-        <v>4.012725891041867</v>
+        <v>1.873011307655588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.104866774633365</v>
+        <v>1.983892982076668</v>
       </c>
       <c r="C8">
-        <v>0.1283677145806621</v>
+        <v>0.3296648716272728</v>
       </c>
       <c r="D8">
-        <v>0.1274605942269247</v>
+        <v>0.05321162517986977</v>
       </c>
       <c r="E8">
-        <v>0.1189185972995062</v>
+        <v>0.04139160269416342</v>
       </c>
       <c r="F8">
-        <v>1.561882344309524</v>
+        <v>0.7516284955074326</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.9404381412655383</v>
+        <v>0.3788836213845279</v>
       </c>
       <c r="J8">
-        <v>0.1446206292558463</v>
+        <v>0.05847464801167135</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3116696819326776</v>
+        <v>0.1892579164933252</v>
       </c>
       <c r="M8">
-        <v>0.2882295010502816</v>
+        <v>0.3665180257329013</v>
       </c>
       <c r="N8">
-        <v>1.578898712056308</v>
+        <v>0.8792897113925306</v>
       </c>
       <c r="O8">
-        <v>3.99365114543167</v>
+        <v>1.95647647032078</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.297526890840004</v>
+        <v>2.654601817347327</v>
       </c>
       <c r="C9">
-        <v>0.158809810303012</v>
+        <v>0.4241907268436478</v>
       </c>
       <c r="D9">
-        <v>0.1280864623949896</v>
+        <v>0.05954909263378028</v>
       </c>
       <c r="E9">
-        <v>0.1174350394355832</v>
+        <v>0.03962690395679491</v>
       </c>
       <c r="F9">
-        <v>1.555298731523123</v>
+        <v>0.8274627446930438</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.9236752209440695</v>
+        <v>0.3776088036058844</v>
       </c>
       <c r="J9">
-        <v>0.1428941046332595</v>
+        <v>0.05542424519823808</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3198709853739246</v>
+        <v>0.2309825500639704</v>
       </c>
       <c r="M9">
-        <v>0.3202629921164046</v>
+        <v>0.4846344140383678</v>
       </c>
       <c r="N9">
-        <v>1.549944137647238</v>
+        <v>0.8179594907385805</v>
       </c>
       <c r="O9">
-        <v>3.972972207444002</v>
+        <v>2.152460002888347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.440101607350243</v>
+        <v>3.151163002544536</v>
       </c>
       <c r="C10">
-        <v>0.1809096999611199</v>
+        <v>0.4937629575875917</v>
       </c>
       <c r="D10">
-        <v>0.1286974027139749</v>
+        <v>0.06440959745700781</v>
       </c>
       <c r="E10">
-        <v>0.1164676359234287</v>
+        <v>0.03849350835000021</v>
       </c>
       <c r="F10">
-        <v>1.554201924670053</v>
+        <v>0.8911262115194489</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.9135579864368921</v>
+        <v>0.381203967689089</v>
       </c>
       <c r="J10">
-        <v>0.1417482617220944</v>
+        <v>0.05335136092700488</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3264079081922944</v>
+        <v>0.2625499107682856</v>
       </c>
       <c r="M10">
-        <v>0.3441950550638921</v>
+        <v>0.5724088216871976</v>
       </c>
       <c r="N10">
-        <v>1.531225424700622</v>
+        <v>0.7784596565851984</v>
       </c>
       <c r="O10">
-        <v>3.967976406767434</v>
+        <v>2.319308198108075</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.505174222380788</v>
+        <v>3.378242011937857</v>
       </c>
       <c r="C11">
-        <v>0.1909048998321055</v>
+        <v>0.5254902934907193</v>
       </c>
       <c r="D11">
-        <v>0.129007795242714</v>
+        <v>0.06666997054666268</v>
       </c>
       <c r="E11">
-        <v>0.1160539867443235</v>
+        <v>0.03801457101825623</v>
       </c>
       <c r="F11">
-        <v>1.554514328754621</v>
+        <v>0.9220646562959303</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.9094327000761027</v>
+        <v>0.3839452698241601</v>
       </c>
       <c r="J11">
-        <v>0.1412534373733125</v>
+        <v>0.05244534407505252</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3294916942241173</v>
+        <v>0.2771442616933655</v>
       </c>
       <c r="M11">
-        <v>0.3551664361443159</v>
+        <v>0.6126252413250768</v>
       </c>
       <c r="N11">
-        <v>1.523262869450932</v>
+        <v>0.7617985498295639</v>
       </c>
       <c r="O11">
-        <v>3.967918270627024</v>
+        <v>2.400925327222637</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.529845116386298</v>
+        <v>3.46443325039877</v>
       </c>
       <c r="C12">
-        <v>0.1946813389986346</v>
+        <v>0.5375203170063401</v>
       </c>
       <c r="D12">
-        <v>0.1291299704824311</v>
+        <v>0.06753342596330469</v>
       </c>
       <c r="E12">
-        <v>0.1159011362672659</v>
+        <v>0.03783859243062615</v>
       </c>
       <c r="F12">
-        <v>1.554749201419355</v>
+        <v>0.9340868870364858</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.9079391637939267</v>
+        <v>0.3851532198682293</v>
       </c>
       <c r="J12">
-        <v>0.1410698470252285</v>
+        <v>0.0521076160305789</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3306751679383382</v>
+        <v>0.282707546819708</v>
       </c>
       <c r="M12">
-        <v>0.359332936346874</v>
+        <v>0.6279015544300606</v>
       </c>
       <c r="N12">
-        <v>1.520327028813668</v>
+        <v>0.7556865691056132</v>
       </c>
       <c r="O12">
-        <v>3.968214641128071</v>
+        <v>2.432720554004362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.524530519342477</v>
+        <v>3.445860966232487</v>
       </c>
       <c r="C13">
-        <v>0.1938683970680017</v>
+        <v>0.5349286719253143</v>
       </c>
       <c r="D13">
-        <v>0.1291034521843883</v>
+        <v>0.06734712491264361</v>
       </c>
       <c r="E13">
-        <v>0.1159338869843776</v>
+        <v>0.03787625119736049</v>
       </c>
       <c r="F13">
-        <v>1.554693434392433</v>
+        <v>0.9314836837409359</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.9082577714238269</v>
+        <v>0.3848853301791095</v>
       </c>
       <c r="J13">
-        <v>0.1411092181543045</v>
+        <v>0.05218011259876043</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3304195889008099</v>
+        <v>0.2815077098747736</v>
       </c>
       <c r="M13">
-        <v>0.3584350822988682</v>
+        <v>0.624609327946402</v>
       </c>
       <c r="N13">
-        <v>1.520955784061414</v>
+        <v>0.7569939694646877</v>
       </c>
       <c r="O13">
-        <v>3.968136653033724</v>
+        <v>2.42583225492146</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.507203333258531</v>
+        <v>3.385328801138314</v>
       </c>
       <c r="C14">
-        <v>0.1912157615713852</v>
+        <v>0.5264796729990167</v>
       </c>
       <c r="D14">
-        <v>0.1290177539437991</v>
+        <v>0.06674085474931246</v>
       </c>
       <c r="E14">
-        <v>0.1160413357580046</v>
+        <v>0.03799998456083564</v>
       </c>
       <c r="F14">
-        <v>1.554531316159967</v>
+        <v>0.9230474573392513</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.9093084506140485</v>
+        <v>0.3840411792128862</v>
       </c>
       <c r="J14">
-        <v>0.1412382574127831</v>
+        <v>0.05241745126475816</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3295887451501471</v>
+        <v>0.2776012023620638</v>
       </c>
       <c r="M14">
-        <v>0.3555089802311997</v>
+        <v>0.6138810509218402</v>
       </c>
       <c r="N14">
-        <v>1.52301974503473</v>
+        <v>0.7612917061827815</v>
       </c>
       <c r="O14">
-        <v>3.96793627260223</v>
+        <v>2.403522933823268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.496593701803647</v>
+        <v>3.348278255776108</v>
       </c>
       <c r="C15">
-        <v>0.1895898305155299</v>
+        <v>0.5213065776249834</v>
       </c>
       <c r="D15">
-        <v>0.1289658640997686</v>
+        <v>0.06637048634402021</v>
       </c>
       <c r="E15">
-        <v>0.1161076444197171</v>
+        <v>0.03807647955429694</v>
       </c>
       <c r="F15">
-        <v>1.554447192243671</v>
+        <v>0.9179206246219138</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.9099609587556046</v>
+        <v>0.3835465701297096</v>
       </c>
       <c r="J15">
-        <v>0.1413177907845542</v>
+        <v>0.05256352764750361</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3290818717528481</v>
+        <v>0.2752132298828087</v>
       </c>
       <c r="M15">
-        <v>0.3537181964430616</v>
+        <v>0.6073160045099115</v>
       </c>
       <c r="N15">
-        <v>1.524294319791629</v>
+        <v>0.7639501606032226</v>
       </c>
       <c r="O15">
-        <v>3.967854995356703</v>
+        <v>2.389975602495525</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.4358531449613</v>
+        <v>3.136349340026413</v>
       </c>
       <c r="C16">
-        <v>0.1802553059715706</v>
+        <v>0.4916914398986876</v>
       </c>
       <c r="D16">
-        <v>0.1286777684249429</v>
+        <v>0.06426290339642549</v>
       </c>
       <c r="E16">
-        <v>0.1164951997384467</v>
+        <v>0.038525555154175</v>
       </c>
       <c r="F16">
-        <v>1.55419782627645</v>
+        <v>0.8891459645322612</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.9138371852019063</v>
+        <v>0.3810479816850219</v>
       </c>
       <c r="J16">
-        <v>0.1417811304564305</v>
+        <v>0.05341131878931726</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.326208580691727</v>
+        <v>0.2616011036528647</v>
       </c>
       <c r="M16">
-        <v>0.3434797268873453</v>
+        <v>0.5697868617970414</v>
       </c>
       <c r="N16">
-        <v>1.53175691181039</v>
+        <v>0.7795755832040854</v>
       </c>
       <c r="O16">
-        <v>3.968024762489989</v>
+        <v>2.314094949262454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398644649236417</v>
+        <v>3.006663531462891</v>
       </c>
       <c r="C17">
-        <v>0.1745138669364223</v>
+        <v>0.4735465678154753</v>
       </c>
       <c r="D17">
-        <v>0.1285093244351714</v>
+        <v>0.0629828812831903</v>
       </c>
       <c r="E17">
-        <v>0.1167397134215262</v>
+        <v>0.03881051482057796</v>
       </c>
       <c r="F17">
-        <v>1.554252583662048</v>
+        <v>0.8720154445727957</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.9163373302082292</v>
+        <v>0.3798059166679977</v>
       </c>
       <c r="J17">
-        <v>0.142072134612774</v>
+        <v>0.0539409078978732</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3244740236079338</v>
+        <v>0.2533125885539249</v>
       </c>
       <c r="M17">
-        <v>0.3372202144390926</v>
+        <v>0.5468416209881113</v>
       </c>
       <c r="N17">
-        <v>1.536476475085742</v>
+        <v>0.7895025312401813</v>
       </c>
       <c r="O17">
-        <v>3.968696052248475</v>
+        <v>2.269054798270986</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.377263604743121</v>
+        <v>2.932181838148551</v>
       </c>
       <c r="C18">
-        <v>0.1712060794392869</v>
+        <v>0.4631172377312396</v>
       </c>
       <c r="D18">
-        <v>0.1284154983733643</v>
+        <v>0.06225126095575462</v>
       </c>
       <c r="E18">
-        <v>0.116882839348194</v>
+        <v>0.03897785854514169</v>
       </c>
       <c r="F18">
-        <v>1.554360452402676</v>
+        <v>0.8623471546584227</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.9178202529901753</v>
+        <v>0.3791949099674525</v>
       </c>
       <c r="J18">
-        <v>0.1422420004381362</v>
+        <v>0.05424898834394387</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3234867233535113</v>
+        <v>0.2485671034230847</v>
       </c>
       <c r="M18">
-        <v>0.3336278851135219</v>
+        <v>0.5336707985445841</v>
       </c>
       <c r="N18">
-        <v>1.539243067863595</v>
+        <v>0.7953347393023833</v>
       </c>
       <c r="O18">
-        <v>3.969290600858471</v>
+        <v>2.2436827702264</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.370027884281626</v>
+        <v>2.906981654811716</v>
       </c>
       <c r="C19">
-        <v>0.1700851860478849</v>
+        <v>0.459587144227072</v>
       </c>
       <c r="D19">
-        <v>0.1283842567877826</v>
+        <v>0.06200432737348649</v>
       </c>
       <c r="E19">
-        <v>0.116931726994153</v>
+        <v>0.03903510611909233</v>
       </c>
       <c r="F19">
-        <v>1.554410095172173</v>
+        <v>0.8591047152182227</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.9183300572871431</v>
+        <v>0.3790054726099115</v>
       </c>
       <c r="J19">
-        <v>0.1422999417306086</v>
+        <v>0.05435389446994154</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3231542254307271</v>
+        <v>0.2469640270772544</v>
       </c>
       <c r="M19">
-        <v>0.332412962794443</v>
+        <v>0.5292157927746572</v>
       </c>
       <c r="N19">
-        <v>1.540188726112717</v>
+        <v>0.7973301918773856</v>
       </c>
       <c r="O19">
-        <v>3.969527706289853</v>
+        <v>2.235181978239694</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.402603467659958</v>
+        <v>3.020457195783479</v>
       </c>
       <c r="C20">
-        <v>0.175125619576761</v>
+        <v>0.4754773536618018</v>
       </c>
       <c r="D20">
-        <v>0.1285269392870916</v>
+        <v>0.06311866134829813</v>
       </c>
       <c r="E20">
-        <v>0.1167134270893539</v>
+        <v>0.03877982328784579</v>
       </c>
       <c r="F20">
-        <v>1.554238850961937</v>
+        <v>0.8738197429671004</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.9160665378472501</v>
+        <v>0.379927359089514</v>
       </c>
       <c r="J20">
-        <v>0.1420408993123514</v>
+        <v>0.05388417226616582</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.324657597688045</v>
+        <v>0.2541926324216206</v>
       </c>
       <c r="M20">
-        <v>0.3378857267281603</v>
+        <v>0.5492813791111644</v>
       </c>
       <c r="N20">
-        <v>1.535968685654183</v>
+        <v>0.788433048681263</v>
       </c>
       <c r="O20">
-        <v>3.968603019881073</v>
+        <v>2.273793677884129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.512291964876681</v>
+        <v>3.403102849586332</v>
       </c>
       <c r="C21">
-        <v>0.1919951376210633</v>
+        <v>0.5289608904334102</v>
       </c>
       <c r="D21">
-        <v>0.1290428000306392</v>
+        <v>0.06691872399061793</v>
       </c>
       <c r="E21">
-        <v>0.1160096726882491</v>
+        <v>0.03796349399316945</v>
       </c>
       <c r="F21">
-        <v>1.554575771271985</v>
+        <v>0.9255168789890575</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.9089979782200217</v>
+        <v>0.3842844262347143</v>
       </c>
       <c r="J21">
-        <v>0.1412002527125562</v>
+        <v>0.05234759326191618</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3298323586855787</v>
+        <v>0.2787476163869513</v>
       </c>
       <c r="M21">
-        <v>0.3563681272816126</v>
+        <v>0.6170308749876412</v>
       </c>
       <c r="N21">
-        <v>1.522411355130828</v>
+        <v>0.7600239280784464</v>
       </c>
       <c r="O21">
-        <v>3.967986488739854</v>
+        <v>2.410051053479151</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.584149839068914</v>
+        <v>3.654373146553496</v>
       </c>
       <c r="C22">
-        <v>0.2029705700877571</v>
+        <v>0.5640084686313571</v>
       </c>
       <c r="D22">
-        <v>0.1294069535689459</v>
+        <v>0.06944621941383389</v>
       </c>
       <c r="E22">
-        <v>0.1155718116090325</v>
+        <v>0.03746141887373522</v>
       </c>
       <c r="F22">
-        <v>1.55547539303798</v>
+        <v>0.9611019118882638</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.9047782433378941</v>
+        <v>0.3881277712619635</v>
       </c>
       <c r="J22">
-        <v>0.140672921089168</v>
+        <v>0.05137462103212975</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3333058824518531</v>
+        <v>0.2950113268990862</v>
       </c>
       <c r="M22">
-        <v>0.3685165370189196</v>
+        <v>0.661587426510394</v>
       </c>
       <c r="N22">
-        <v>1.514013667119976</v>
+        <v>0.7426111639341997</v>
       </c>
       <c r="O22">
-        <v>3.969439317836105</v>
+        <v>2.504316728935265</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.545782890311102</v>
+        <v>3.520146092570087</v>
       </c>
       <c r="C23">
-        <v>0.1971173836419098</v>
+        <v>0.5452929027873381</v>
       </c>
       <c r="D23">
-        <v>0.1292101376164894</v>
+        <v>0.06809308392371349</v>
       </c>
       <c r="E23">
-        <v>0.1158034892375985</v>
+        <v>0.0377264692657624</v>
       </c>
       <c r="F23">
-        <v>1.554933113257647</v>
+        <v>0.9419372851356798</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.9069937924700469</v>
+        <v>0.3859816155104312</v>
       </c>
       <c r="J23">
-        <v>0.1409523512421371</v>
+        <v>0.05189103699689301</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3314436639048211</v>
+        <v>0.2863102877535795</v>
       </c>
       <c r="M23">
-        <v>0.3620264739254537</v>
+        <v>0.6377792226663175</v>
       </c>
       <c r="N23">
-        <v>1.518453345653455</v>
+        <v>0.7517958780120537</v>
       </c>
       <c r="O23">
-        <v>3.96849413087196</v>
+        <v>2.453505138132641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.400813652664283</v>
+        <v>3.014220844406111</v>
       </c>
       <c r="C24">
-        <v>0.1748490678692463</v>
+        <v>0.4746044382280843</v>
       </c>
       <c r="D24">
-        <v>0.1285189662209376</v>
+        <v>0.06305726187564176</v>
       </c>
       <c r="E24">
-        <v>0.1167253031910738</v>
+        <v>0.0387936879848878</v>
       </c>
       <c r="F24">
-        <v>1.554244821564183</v>
+        <v>0.8730034598052754</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.9161888211695626</v>
+        <v>0.3798721347340788</v>
       </c>
       <c r="J24">
-        <v>0.1420550128053639</v>
+        <v>0.05390981119631544</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3245745729387011</v>
+        <v>0.253794703478448</v>
       </c>
       <c r="M24">
-        <v>0.3375848288279997</v>
+        <v>0.5481783004219096</v>
       </c>
       <c r="N24">
-        <v>1.53619809136967</v>
+        <v>0.7889161728588689</v>
       </c>
       <c r="O24">
-        <v>3.968644429984295</v>
+        <v>2.271649608989236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.245222641999419</v>
+        <v>2.47260498129225</v>
       </c>
       <c r="C25">
-        <v>0.1506207781314686</v>
+        <v>0.3986130624797681</v>
       </c>
       <c r="D25">
-        <v>0.1278904877042351</v>
+        <v>0.05780029037268264</v>
       </c>
       <c r="E25">
-        <v>0.1178148008455038</v>
+        <v>0.04007606056885082</v>
       </c>
       <c r="F25">
-        <v>1.556422647054831</v>
+        <v>0.8056322369792994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.9278239220137721</v>
+        <v>0.3771970141849934</v>
       </c>
       <c r="J25">
-        <v>0.1433395787460627</v>
+        <v>0.05622006501513965</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3175621165230638</v>
+        <v>0.2195460526584156</v>
       </c>
       <c r="M25">
-        <v>0.3115265719109033</v>
+        <v>0.4525283599171033</v>
       </c>
       <c r="N25">
-        <v>1.557328033575402</v>
+        <v>0.833607235548854</v>
       </c>
       <c r="O25">
-        <v>3.976775706613722</v>
+        <v>2.095667658180673</v>
       </c>
     </row>
   </sheetData>
